--- a/URS/DbLayouts/L8-遵循法令作業/JcicZ572.xlsx
+++ b/URS/DbLayouts/L8-遵循法令作業/JcicZ572.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566AC090-696F-46FB-BC46-BB9F4D23D4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19404" windowHeight="6816" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -292,19 +291,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>CustIdEq</t>
-  </si>
-  <si>
     <t>CustId=</t>
   </si>
   <si>
-    <t>RcDateEq</t>
-  </si>
-  <si>
     <t>ApplyDate=</t>
-  </si>
-  <si>
-    <t>CustRcEq</t>
   </si>
   <si>
     <t>CustId= , AND ApplyDate=</t>
@@ -375,12 +365,24 @@
   <si>
     <t>SubmitKey,CustId,ApplyDate,PayDate,BankId</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>custIdEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcDateEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custRcEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -607,7 +609,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -698,23 +700,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -750,23 +735,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -942,10 +910,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -965,10 +933,10 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -993,10 +961,10 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1134,14 +1102,14 @@
         <v>23</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E12" s="15">
         <v>3</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1171,7 +1139,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>36</v>
@@ -1231,14 +1199,14 @@
         <v>48</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E17" s="15">
         <v>3</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1280,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1307,10 +1275,10 @@
         <v>11</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>21</v>
@@ -1910,12 +1878,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1939,65 +1907,65 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
